--- a/biology/Médecine/Exsudat/Exsudat.xlsx
+++ b/biology/Médecine/Exsudat/Exsudat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un exsudat est un épanchement de liquide de nature séreuse dû à une modification de la perméabilité de la membrane consécutive à une inflammation, contenant une forte concentration de leucocytes.
-Les exsudats sont notamment différentiables des transsudats par leur composition[1] :
+Les exsudats sont notamment différentiables des transsudats par leur composition :
 riches en lipides (taux supérieur à 35 g/L) ;
 toutes les fractions électrophorétiques des protéines sont représentées ;
 le ratio LDH plèvre/LDH sérique est supérieur à 0,6 ;
@@ -518,7 +530,9 @@
           <t>Analogie dans d'autres règnes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des végétaux et champignons produisent également des exsudats, parfois valorisés tels que les résines ou le latex produits en forêt, qui sont un produit forestier, autre que le bois, pouvant éventuellement avoir des fonctions médicinales ou paramédicales.
 </t>
